--- a/Input_Data/Water/Water_Scape.xlsx
+++ b/Input_Data/Water/Water_Scape.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioulu-my.sharepoint.com/personal/zvirk20_univ_yo_oulu_fi/Documents/WATNEX/Calculations/Conceptual Model Paper/Conceptual Model/Input_Data/Water/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Nexus-Conceptual-Model\Nexus-Conceptual-Model\Input_Data\Water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC10488ED91E52EE5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23C441FE-33DB-4420-A890-D3FF6B592233}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43406A22-03F6-4EE8-A8CE-B701C1E3EA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13068" yWindow="-3624" windowWidth="13176" windowHeight="22656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,10 +151,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,11 +418,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -444,9 +445,10 @@
       <c r="B2">
         <v>2000</v>
       </c>
-      <c r="C2">
-        <v>1000000</v>
-      </c>
+      <c r="C2" s="3">
+        <v>315576000</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -455,8 +457,8 @@
       <c r="B3">
         <v>2001</v>
       </c>
-      <c r="C3">
-        <v>1000000</v>
+      <c r="C3" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -466,8 +468,8 @@
       <c r="B4">
         <v>2002</v>
       </c>
-      <c r="C4">
-        <v>1000000</v>
+      <c r="C4" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -477,8 +479,8 @@
       <c r="B5">
         <v>2003</v>
       </c>
-      <c r="C5">
-        <v>1000000</v>
+      <c r="C5" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -488,8 +490,8 @@
       <c r="B6">
         <v>2004</v>
       </c>
-      <c r="C6">
-        <v>1000000</v>
+      <c r="C6" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -499,8 +501,8 @@
       <c r="B7">
         <v>2005</v>
       </c>
-      <c r="C7">
-        <v>1000000</v>
+      <c r="C7" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -510,8 +512,8 @@
       <c r="B8">
         <v>2006</v>
       </c>
-      <c r="C8">
-        <v>1000000</v>
+      <c r="C8" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -521,8 +523,8 @@
       <c r="B9">
         <v>2007</v>
       </c>
-      <c r="C9">
-        <v>1000000</v>
+      <c r="C9" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -532,8 +534,8 @@
       <c r="B10">
         <v>2008</v>
       </c>
-      <c r="C10">
-        <v>1000000</v>
+      <c r="C10" s="3">
+        <v>315576000</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -546,8 +548,8 @@
       <c r="B11">
         <v>2009</v>
       </c>
-      <c r="C11">
-        <v>1000000</v>
+      <c r="C11" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -557,8 +559,8 @@
       <c r="B12">
         <v>2010</v>
       </c>
-      <c r="C12">
-        <v>1000000</v>
+      <c r="C12" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -568,8 +570,8 @@
       <c r="B13">
         <v>2011</v>
       </c>
-      <c r="C13">
-        <v>1000000</v>
+      <c r="C13" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -579,8 +581,8 @@
       <c r="B14">
         <v>2012</v>
       </c>
-      <c r="C14">
-        <v>1000000</v>
+      <c r="C14" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -590,8 +592,8 @@
       <c r="B15">
         <v>2013</v>
       </c>
-      <c r="C15">
-        <v>1000000</v>
+      <c r="C15" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -601,8 +603,8 @@
       <c r="B16">
         <v>2014</v>
       </c>
-      <c r="C16">
-        <v>1000000</v>
+      <c r="C16" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -612,8 +614,8 @@
       <c r="B17">
         <v>2015</v>
       </c>
-      <c r="C17">
-        <v>1000000</v>
+      <c r="C17" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -623,8 +625,8 @@
       <c r="B18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>1000000</v>
+      <c r="C18" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -634,8 +636,8 @@
       <c r="B19">
         <v>2017</v>
       </c>
-      <c r="C19">
-        <v>1000000</v>
+      <c r="C19" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -645,8 +647,8 @@
       <c r="B20">
         <v>2018</v>
       </c>
-      <c r="C20">
-        <v>1000000</v>
+      <c r="C20" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -656,8 +658,8 @@
       <c r="B21">
         <v>2019</v>
       </c>
-      <c r="C21">
-        <v>1000000</v>
+      <c r="C21" s="3">
+        <v>315576000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -667,8 +669,8 @@
       <c r="B22">
         <v>2020</v>
       </c>
-      <c r="C22">
-        <v>1000000</v>
+      <c r="C22" s="3">
+        <v>315576000</v>
       </c>
     </row>
   </sheetData>
@@ -680,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD9DE2C-CF95-4A2D-BF21-21302748B6F3}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
